--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa\Desktop\yh\source\solRTMP_filelive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075BB74-8DDC-425D-95DF-CE5DBED1B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32862AE-5097-4F23-94FD-8D86F7EF9762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1011FF62-8406-4239-A823-B95706A0E86C}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Ad Point 1</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ad Point 2</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Ad Point 5</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Caption Path</t>
   </si>
   <si>
@@ -307,6 +299,12 @@
   </si>
   <si>
     <t>idd</t>
+  </si>
+  <si>
+    <t>Ad Point 1</t>
+  </si>
+  <si>
+    <t>ad Point 5</t>
   </si>
 </sst>
 </file>
@@ -441,6 +439,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,9 +449,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,116 +773,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC61779F-26F4-4DFE-9784-0470918DB49F}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="14"/>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -892,34 +890,34 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="N3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4">
-        <v>3000</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="P3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="4">
-        <v>3000</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="R3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="4">
-        <v>3000</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="T3" s="4">
         <v>3000</v>
@@ -927,61 +925,61 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="L4" s="4">
         <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" s="4">
         <v>3717000</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" s="4">
         <v>3717000</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="4">
         <v>3717000</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T4" s="4">
         <v>3717000</v>
@@ -989,16 +987,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1007,31 +1005,31 @@
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4">
-        <v>3000</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="P5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="4">
-        <v>3000</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="R5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="4">
-        <v>3000</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="T5" s="4">
         <v>3000</v>
@@ -1039,61 +1037,61 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="4">
         <v>3856000</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" s="4">
         <v>3856000</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P6" s="4">
         <v>3856000</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R6" s="4">
         <v>3856000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T6" s="4">
         <v>3856000</v>
@@ -1101,16 +1099,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1119,31 +1117,31 @@
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L7" s="4">
         <v>3000</v>
       </c>
       <c r="M7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="4">
-        <v>3000</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="R7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="P7" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="4">
-        <v>3000</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="T7" s="4">
         <v>3000</v>
@@ -1151,61 +1149,61 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="L8" s="8">
         <v>3673000</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N8" s="8">
         <v>3673000</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="8">
         <v>3673000</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R8" s="8">
         <v>3673000</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T8" s="8">
         <v>3673000</v>
@@ -1213,16 +1211,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1231,31 +1229,31 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L9" s="4">
         <v>3000</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="4">
-        <v>3000</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="R9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="P9" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="4">
-        <v>3000</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="T9" s="4">
         <v>3000</v>
@@ -1263,61 +1261,61 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="K10" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="L10" s="8">
         <v>3710000</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N10" s="8">
         <v>3710000</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P10" s="8">
         <v>3710000</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R10" s="8">
         <v>3710000</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T10" s="8">
         <v>3710000</v>
@@ -1325,16 +1323,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1343,31 +1341,31 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L11" s="4">
         <v>3000</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4">
+        <v>3000</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="4">
-        <v>3000</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="R11" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="P11" s="4">
-        <v>3000</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="4">
-        <v>3000</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="T11" s="4">
         <v>3000</v>
@@ -1375,61 +1373,61 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="L12" s="4">
         <v>7010000</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N12" s="4">
         <v>7010000</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P12" s="4">
         <v>7010000</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R12" s="4">
         <v>7010000</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T12" s="4">
         <v>7010000</v>
@@ -1437,12 +1435,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
@@ -1452,6 +1444,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
